--- a/WebClient/wwwroot/Template/SampleImportExams.xlsx
+++ b/WebClient/wwwroot/Template/SampleImportExams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAn\SEP490_G47_Exam_Review\WebClient\wwwroot\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\Capstone\SEP490\Tài liệu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5751D4-44DB-4503-A953-CA7C9B2CABA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182CD9C8-D1FC-4123-8CDD-95C56747E779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="509" xr2:uid="{42B5398A-6E28-4111-803B-A4F154C3F2C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="509" xr2:uid="{42B5398A-6E28-4111-803B-A4F154C3F2C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,30 +34,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="55">
   <si>
     <t>Ha Noi</t>
   </si>
   <si>
-    <t>minhnh@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>EXAM008</t>
+    <t>FA24</t>
+  </si>
+  <si>
+    <t>Block10</t>
+  </si>
+  <si>
+    <t>90'</t>
+  </si>
+  <si>
+    <t>AID301c</t>
+  </si>
+  <si>
+    <t>ADY201m_Fa24_FE_123456</t>
+  </si>
+  <si>
+    <t>Multiple Choice</t>
+  </si>
+  <si>
+    <t>AID301c_Fa24_FE_123456</t>
+  </si>
+  <si>
+    <t>AIE301m_Fa24_FE_123456</t>
+  </si>
+  <si>
+    <t>AIG202c_Fa24_FE_123456</t>
+  </si>
+  <si>
+    <t>AIH301m_Fa24_FE_123456</t>
+  </si>
+  <si>
+    <t>AIM301m_Fa24_FE_123456</t>
+  </si>
+  <si>
+    <t>ASR301c_Fa24_FE_123456</t>
+  </si>
+  <si>
+    <t>BDI301c_Fa24_FE_123456</t>
+  </si>
+  <si>
+    <t>BDI302c_Fa24_FE_123456</t>
+  </si>
+  <si>
+    <t>CPV301_Fa24_FE_123456</t>
+  </si>
+  <si>
+    <t>DAP391m_Fa24_FE_123456</t>
+  </si>
+  <si>
+    <t>DAT301m_Fa24_FE_123456</t>
+  </si>
+  <si>
+    <t>DBM302m_Fa24_FE_123456</t>
+  </si>
+  <si>
+    <t>DPL301m_Fa24_FE_123456</t>
+  </si>
+  <si>
+    <t>DPL302m_Fa24_FE_123456</t>
+  </si>
+  <si>
+    <t>DSR301m_Fa24_FE_123456</t>
+  </si>
+  <si>
+    <t>DWP301c_Fa24_FE_123456</t>
+  </si>
+  <si>
+    <t>NLP301c_Fa24_FE_123456</t>
+  </si>
+  <si>
+    <t>AIL303m_Fa24_FE_123456</t>
+  </si>
+  <si>
+    <t>AIE301m</t>
+  </si>
+  <si>
+    <t>AIG202c</t>
+  </si>
+  <si>
+    <t>AIH301m</t>
+  </si>
+  <si>
+    <t>AIL303m</t>
+  </si>
+  <si>
+    <t>AIM301m</t>
+  </si>
+  <si>
+    <t>ASR301c</t>
+  </si>
+  <si>
+    <t>BDI301c</t>
+  </si>
+  <si>
+    <t>BDI302c</t>
+  </si>
+  <si>
+    <t>CPV301</t>
+  </si>
+  <si>
+    <t>DAP391m</t>
+  </si>
+  <si>
+    <t>DAT301m</t>
+  </si>
+  <si>
+    <t>DBM302m</t>
+  </si>
+  <si>
+    <t>DPL301m</t>
+  </si>
+  <si>
+    <t>DPL302m</t>
+  </si>
+  <si>
+    <t>DSR301m</t>
+  </si>
+  <si>
+    <t>DWP301c</t>
+  </si>
+  <si>
+    <t>NLP301c</t>
+  </si>
+  <si>
+    <t>tuanlmhe161245@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>Số thứ tự</t>
+  </si>
+  <si>
+    <t>Mã đề thi</t>
+  </si>
+  <si>
+    <t>Đợt thi</t>
+  </si>
+  <si>
+    <t>Hình Thức Thi</t>
+  </si>
+  <si>
+    <t>Cơ Sở</t>
+  </si>
+  <si>
+    <t>Tên Môn</t>
   </si>
   <si>
     <t>Người tạo</t>
   </si>
   <si>
-    <t>Đợt thi</t>
-  </si>
-  <si>
-    <t>Hình Thức Thi</t>
-  </si>
-  <si>
-    <t>Cơ Sở</t>
-  </si>
-  <si>
-    <t>Tên Môn</t>
+    <t>Thời lượng thi</t>
   </si>
   <si>
     <t>Ngày bắt đầu</t>
@@ -66,59 +195,17 @@
     <t>Ngày kết thúc</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kì </t>
-  </si>
-  <si>
-    <t>FA24</t>
+    <t>Kì</t>
   </si>
   <si>
     <t>Thời Gian Thi</t>
-  </si>
-  <si>
-    <t>Thời lượng thi</t>
-  </si>
-  <si>
-    <t>EXAM009</t>
-  </si>
-  <si>
-    <t>Listening</t>
-  </si>
-  <si>
-    <t>Da Nang</t>
-  </si>
-  <si>
-    <t>Block10</t>
-  </si>
-  <si>
-    <t>Block5</t>
-  </si>
-  <si>
-    <t>60'</t>
-  </si>
-  <si>
-    <t>90'</t>
-  </si>
-  <si>
-    <t>Mã đề thi</t>
-  </si>
-  <si>
-    <t>ADY201m</t>
-  </si>
-  <si>
-    <t>AID301c</t>
-  </si>
-  <si>
-    <t>Số thứ tự</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +221,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -143,7 +242,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -151,15 +250,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -475,144 +593,790 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCC8E54-C692-45C5-93AF-98FE2E1AC82E}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="65.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45597</v>
+      </c>
+      <c r="J2" s="2">
+        <v>45607</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>45597</v>
+      </c>
+      <c r="J3" s="2">
+        <v>45607</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>45597</v>
+      </c>
+      <c r="J4" s="2">
+        <v>45607</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>45597</v>
+      </c>
+      <c r="J5" s="2">
+        <v>45607</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>45597</v>
+      </c>
+      <c r="J6" s="2">
+        <v>45607</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>45597</v>
+      </c>
+      <c r="J7" s="2">
+        <v>45607</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45597</v>
+      </c>
+      <c r="J8" s="2">
+        <v>45607</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2">
+        <v>45597</v>
+      </c>
+      <c r="J9" s="2">
+        <v>45607</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>45597</v>
+      </c>
+      <c r="J10" s="2">
+        <v>45607</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>45597</v>
+      </c>
+      <c r="J11" s="2">
+        <v>45607</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>45597</v>
+      </c>
+      <c r="J12" s="2">
+        <v>45607</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>45597</v>
+      </c>
+      <c r="J13" s="2">
+        <v>45607</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="2">
+        <v>45597</v>
+      </c>
+      <c r="J14" s="2">
+        <v>45607</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="2">
+        <v>45597</v>
+      </c>
+      <c r="J15" s="2">
+        <v>45607</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>45597</v>
+      </c>
+      <c r="J16" s="2">
+        <v>45607</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="2">
+        <v>45597</v>
+      </c>
+      <c r="J17" s="2">
+        <v>45607</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>45597</v>
+      </c>
+      <c r="J18" s="2">
+        <v>45607</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>45597</v>
+      </c>
+      <c r="J19" s="2">
+        <v>45607</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2">
-        <v>45580</v>
-      </c>
-      <c r="J2" s="2">
-        <v>45590</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="2">
-        <v>45454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2">
-        <v>45580</v>
-      </c>
-      <c r="J3" s="2">
-        <v>45590</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="2">
-        <v>45454</v>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>45597</v>
+      </c>
+      <c r="J20" s="2">
+        <v>45607</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>45614</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{5A45251D-7109-4202-AD18-D7AA4A002476}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{3B2104F8-297F-4C8A-895B-C92654841911}"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WebClient/wwwroot/Template/SampleImportExams.xlsx
+++ b/WebClient/wwwroot/Template/SampleImportExams.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\Capstone\SEP490\Tài liệu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\Capstone\SEP490\SEP\New folder\SEP490_G47_Exam_Review\WebClient\wwwroot\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182CD9C8-D1FC-4123-8CDD-95C56747E779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CEB623-23EA-4DDC-B03B-0BCD6CA2BCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="509" xr2:uid="{42B5398A-6E28-4111-803B-A4F154C3F2C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="52">
   <si>
     <t>Ha Noi</t>
   </si>
@@ -162,9 +162,6 @@
     <t>NLP301c</t>
   </si>
   <si>
-    <t>tuanlmhe161245@fpt.edu.vn</t>
-  </si>
-  <si>
     <t>Số thứ tự</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>Tên Môn</t>
   </si>
   <si>
-    <t>Người tạo</t>
-  </si>
-  <si>
     <t>Thời lượng thi</t>
   </si>
   <si>
@@ -196,27 +190,16 @@
   </si>
   <si>
     <t>Kì</t>
-  </si>
-  <si>
-    <t>Thời Gian Thi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -266,21 +249,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -593,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCC8E54-C692-45C5-93AF-98FE2E1AC82E}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,53 +586,47 @@
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -668,29 +642,24 @@
       <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2">
-        <v>45597</v>
-      </c>
-      <c r="J2" s="2">
-        <v>45607</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45597</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45607</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -710,25 +679,20 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>45597</v>
-      </c>
-      <c r="J3" s="2">
-        <v>45607</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45597</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45607</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -747,26 +711,21 @@
       <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2">
-        <v>45597</v>
-      </c>
-      <c r="J4" s="2">
-        <v>45607</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>45597</v>
+      </c>
+      <c r="I4" s="1">
+        <v>45607</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -785,26 +744,21 @@
       <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="2">
-        <v>45597</v>
-      </c>
-      <c r="J5" s="2">
-        <v>45607</v>
-      </c>
-      <c r="K5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>45597</v>
+      </c>
+      <c r="I5" s="1">
+        <v>45607</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -823,26 +777,21 @@
       <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="2">
-        <v>45597</v>
-      </c>
-      <c r="J6" s="2">
-        <v>45607</v>
-      </c>
-      <c r="K6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>45597</v>
+      </c>
+      <c r="I6" s="1">
+        <v>45607</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -861,26 +810,21 @@
       <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>45597</v>
-      </c>
-      <c r="J7" s="2">
-        <v>45607</v>
-      </c>
-      <c r="K7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45597</v>
+      </c>
+      <c r="I7" s="1">
+        <v>45607</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -899,26 +843,21 @@
       <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="2">
-        <v>45597</v>
-      </c>
-      <c r="J8" s="2">
-        <v>45607</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>45597</v>
+      </c>
+      <c r="I8" s="1">
+        <v>45607</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -937,26 +876,21 @@
       <c r="F9" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="2">
-        <v>45597</v>
-      </c>
-      <c r="J9" s="2">
-        <v>45607</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>45597</v>
+      </c>
+      <c r="I9" s="1">
+        <v>45607</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -975,26 +909,21 @@
       <c r="F10" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="2">
-        <v>45597</v>
-      </c>
-      <c r="J10" s="2">
-        <v>45607</v>
-      </c>
-      <c r="K10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>45597</v>
+      </c>
+      <c r="I10" s="1">
+        <v>45607</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1013,26 +942,21 @@
       <c r="F11" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="2">
-        <v>45597</v>
-      </c>
-      <c r="J11" s="2">
-        <v>45607</v>
-      </c>
-      <c r="K11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>45597</v>
+      </c>
+      <c r="I11" s="1">
+        <v>45607</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1051,26 +975,21 @@
       <c r="F12" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="2">
-        <v>45597</v>
-      </c>
-      <c r="J12" s="2">
-        <v>45607</v>
-      </c>
-      <c r="K12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="2">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>45597</v>
+      </c>
+      <c r="I12" s="1">
+        <v>45607</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1089,26 +1008,21 @@
       <c r="F13" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="2">
-        <v>45597</v>
-      </c>
-      <c r="J13" s="2">
-        <v>45607</v>
-      </c>
-      <c r="K13" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>45597</v>
+      </c>
+      <c r="I13" s="1">
+        <v>45607</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1127,26 +1041,21 @@
       <c r="F14" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="2">
-        <v>45597</v>
-      </c>
-      <c r="J14" s="2">
-        <v>45607</v>
-      </c>
-      <c r="K14" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>45597</v>
+      </c>
+      <c r="I14" s="1">
+        <v>45607</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1165,26 +1074,21 @@
       <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="2">
-        <v>45597</v>
-      </c>
-      <c r="J15" s="2">
-        <v>45607</v>
-      </c>
-      <c r="K15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>45597</v>
+      </c>
+      <c r="I15" s="1">
+        <v>45607</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1203,26 +1107,21 @@
       <c r="F16" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="2">
-        <v>45597</v>
-      </c>
-      <c r="J16" s="2">
-        <v>45607</v>
-      </c>
-      <c r="K16" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="2">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>45597</v>
+      </c>
+      <c r="I16" s="1">
+        <v>45607</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1241,26 +1140,21 @@
       <c r="F17" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="2">
-        <v>45597</v>
-      </c>
-      <c r="J17" s="2">
-        <v>45607</v>
-      </c>
-      <c r="K17" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>45597</v>
+      </c>
+      <c r="I17" s="1">
+        <v>45607</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1279,26 +1173,21 @@
       <c r="F18" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="2">
-        <v>45597</v>
-      </c>
-      <c r="J18" s="2">
-        <v>45607</v>
-      </c>
-      <c r="K18" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="2">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>45597</v>
+      </c>
+      <c r="I18" s="1">
+        <v>45607</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1317,26 +1206,21 @@
       <c r="F19" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="2">
-        <v>45597</v>
-      </c>
-      <c r="J19" s="2">
-        <v>45607</v>
-      </c>
-      <c r="K19" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="2">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>45597</v>
+      </c>
+      <c r="I19" s="1">
+        <v>45607</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1355,27 +1239,22 @@
       <c r="F20" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="2">
-        <v>45597</v>
-      </c>
-      <c r="J20" s="2">
-        <v>45607</v>
-      </c>
-      <c r="K20" t="s">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2">
-        <v>45614</v>
-      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>45597</v>
+      </c>
+      <c r="I20" s="1">
+        <v>45607</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/WebClient/wwwroot/Template/SampleImportExams.xlsx
+++ b/WebClient/wwwroot/Template/SampleImportExams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\Capstone\SEP490\SEP\New folder\SEP490_G47_Exam_Review\WebClient\wwwroot\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62872EB3-42FC-4887-9B02-A074D107C957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC52465B-7587-422F-8D5B-A8EFCD349C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="509" xr2:uid="{42B5398A-6E28-4111-803B-A4F154C3F2C4}"/>
   </bookViews>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Ha Noi</t>
   </si>
   <si>
-    <t>FA24</t>
-  </si>
-  <si>
     <t>Block10</t>
   </si>
   <si>
@@ -81,10 +78,10 @@
     <t>ADY201m</t>
   </si>
   <si>
-    <t>ADY201m_Fd</t>
-  </si>
-  <si>
-    <t>ADY201m_Fad</t>
+    <t>SU25</t>
+  </si>
+  <si>
+    <t>ADY201</t>
   </si>
 </sst>
 </file>
@@ -472,7 +469,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,34 +488,34 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="K1" s="3"/>
     </row>
@@ -527,19 +524,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="4">
         <v>90</v>
@@ -551,7 +548,7 @@
         <v>45607</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1"/>
     </row>
@@ -560,19 +557,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4">
         <v>90</v>
@@ -584,7 +581,7 @@
         <v>45607</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">

--- a/WebClient/wwwroot/Template/SampleImportExams.xlsx
+++ b/WebClient/wwwroot/Template/SampleImportExams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\Capstone\SEP490\SEP\New folder\SEP490_G47_Exam_Review\WebClient\wwwroot\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC52465B-7587-422F-8D5B-A8EFCD349C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4955B48-5F57-4E01-9F1D-7C24CEC0D863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="509" xr2:uid="{42B5398A-6E28-4111-803B-A4F154C3F2C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Ha Noi</t>
   </si>
@@ -81,7 +81,13 @@
     <t>SU25</t>
   </si>
   <si>
-    <t>ADY201</t>
+    <t>ADY201s</t>
+  </si>
+  <si>
+    <t>ADY201ff</t>
+  </si>
+  <si>
+    <t>25/11/2024</t>
   </si>
 </sst>
 </file>
@@ -469,7 +475,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +487,7 @@
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
@@ -544,8 +550,8 @@
       <c r="H2" s="1">
         <v>45597</v>
       </c>
-      <c r="I2" s="1">
-        <v>45607</v>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>14</v>
@@ -557,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -577,8 +583,8 @@
       <c r="H3" s="1">
         <v>45597</v>
       </c>
-      <c r="I3" s="1">
-        <v>45607</v>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
